--- a/portfolio/posts/_data/TRUCK_RECORDS.xlsx
+++ b/portfolio/posts/_data/TRUCK_RECORDS.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1384" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="120">
   <si>
     <t>Data checked through 2019</t>
   </si>
@@ -377,6 +377,12 @@
   </si>
   <si>
     <t>Osseo KwikTrip</t>
+  </si>
+  <si>
+    <t>Actually filled on morning of 1-Jan</t>
+  </si>
+  <si>
+    <t>Ashland CircleK</t>
   </si>
 </sst>
 </file>
@@ -1725,8 +1731,8 @@
   <dimension ref="A1:AD1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A253" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G282" sqref="G282:L285"/>
+      <pane ySplit="1" topLeftCell="A265" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B290" sqref="B290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12508,132 +12514,275 @@
       </c>
     </row>
     <row r="286" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C286" s="8"/>
-      <c r="D286" s="9"/>
-      <c r="E286" s="9"/>
-      <c r="F286" s="10"/>
-      <c r="G286" s="10"/>
+      <c r="A286" s="33">
+        <v>45262</v>
+      </c>
+      <c r="B286" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C286" s="8">
+        <v>88384.4</v>
+      </c>
+      <c r="D286" s="9">
+        <v>21.923999999999999</v>
+      </c>
+      <c r="E286" s="9">
+        <v>2.9990000000000001</v>
+      </c>
+      <c r="F286" s="10">
+        <v>65.75</v>
+      </c>
+      <c r="G286" s="21">
+        <v>0</v>
+      </c>
+      <c r="H286" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I286" s="24">
+        <v>0</v>
+      </c>
+      <c r="K286" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L286" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="287" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C287" s="8"/>
-      <c r="D287" s="9"/>
-      <c r="E287" s="9"/>
-      <c r="F287" s="10"/>
-      <c r="G287" s="10"/>
+      <c r="A287" s="33">
+        <v>45264</v>
+      </c>
+      <c r="B287" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C287" s="8">
+        <v>88468.1</v>
+      </c>
+      <c r="D287" s="9">
+        <v>4.4530000000000003</v>
+      </c>
+      <c r="E287" s="9">
+        <v>2.649</v>
+      </c>
+      <c r="F287" s="10">
+        <v>11.8</v>
+      </c>
+      <c r="G287" s="21">
+        <v>0</v>
+      </c>
+      <c r="H287" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I287" s="24">
+        <v>0</v>
+      </c>
+      <c r="K287" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L287" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="288" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C288" s="8"/>
-      <c r="D288" s="9"/>
-      <c r="E288" s="9"/>
-      <c r="F288" s="10"/>
-      <c r="G288" s="10"/>
-    </row>
-    <row r="289" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C289" s="8"/>
-      <c r="D289" s="9"/>
-      <c r="E289" s="9"/>
-      <c r="F289" s="10"/>
-      <c r="G289" s="10"/>
-    </row>
-    <row r="290" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C290" s="8"/>
-      <c r="D290" s="9"/>
-      <c r="E290" s="9"/>
-      <c r="F290" s="10"/>
-      <c r="G290" s="10"/>
-    </row>
-    <row r="291" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A288" s="33">
+        <v>45276</v>
+      </c>
+      <c r="B288" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C288" s="8">
+        <v>88852.2</v>
+      </c>
+      <c r="D288" s="9">
+        <v>20.437000000000001</v>
+      </c>
+      <c r="E288" s="9">
+        <v>2.899</v>
+      </c>
+      <c r="F288" s="10">
+        <v>59.25</v>
+      </c>
+      <c r="G288" s="21">
+        <v>0</v>
+      </c>
+      <c r="H288" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I288" s="24">
+        <v>0</v>
+      </c>
+      <c r="K288" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L288" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="289" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A289" s="33">
+        <v>45279</v>
+      </c>
+      <c r="B289" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="C289" s="8">
+        <v>88942.2</v>
+      </c>
+      <c r="D289" s="9">
+        <v>5</v>
+      </c>
+      <c r="E289" s="9">
+        <v>2.9990000000000001</v>
+      </c>
+      <c r="F289" s="10">
+        <v>15</v>
+      </c>
+      <c r="G289" s="21">
+        <v>0</v>
+      </c>
+      <c r="H289" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I289" s="24">
+        <v>0</v>
+      </c>
+      <c r="K289" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L289" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="290" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A290" s="33">
+        <v>45291</v>
+      </c>
+      <c r="B290" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C290" s="8">
+        <v>89319.9</v>
+      </c>
+      <c r="D290" s="9">
+        <v>21.172999999999998</v>
+      </c>
+      <c r="E290" s="9">
+        <v>2.9990000000000001</v>
+      </c>
+      <c r="F290" s="10">
+        <v>63.5</v>
+      </c>
+      <c r="G290" s="21">
+        <v>0</v>
+      </c>
+      <c r="H290" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I290" s="24">
+        <v>0</v>
+      </c>
+      <c r="K290" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L290" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M290" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="291" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C291" s="8"/>
       <c r="D291" s="9"/>
       <c r="E291" s="9"/>
       <c r="F291" s="10"/>
       <c r="G291" s="10"/>
     </row>
-    <row r="292" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C292" s="8"/>
       <c r="D292" s="9"/>
       <c r="E292" s="9"/>
       <c r="F292" s="10"/>
       <c r="G292" s="10"/>
     </row>
-    <row r="293" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C293" s="8"/>
       <c r="D293" s="9"/>
       <c r="E293" s="9"/>
       <c r="F293" s="10"/>
       <c r="G293" s="10"/>
     </row>
-    <row r="294" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C294" s="8"/>
       <c r="D294" s="9"/>
       <c r="E294" s="9"/>
       <c r="F294" s="10"/>
       <c r="G294" s="10"/>
     </row>
-    <row r="295" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C295" s="8"/>
       <c r="D295" s="9"/>
       <c r="E295" s="9"/>
       <c r="F295" s="10"/>
       <c r="G295" s="10"/>
     </row>
-    <row r="296" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C296" s="8"/>
       <c r="D296" s="9"/>
       <c r="E296" s="9"/>
       <c r="F296" s="10"/>
       <c r="G296" s="10"/>
     </row>
-    <row r="297" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C297" s="8"/>
       <c r="D297" s="9"/>
       <c r="E297" s="9"/>
       <c r="F297" s="10"/>
       <c r="G297" s="10"/>
     </row>
-    <row r="298" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C298" s="8"/>
       <c r="D298" s="9"/>
       <c r="E298" s="9"/>
       <c r="F298" s="10"/>
       <c r="G298" s="10"/>
     </row>
-    <row r="299" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C299" s="8"/>
       <c r="D299" s="9"/>
       <c r="E299" s="9"/>
       <c r="F299" s="10"/>
       <c r="G299" s="10"/>
     </row>
-    <row r="300" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C300" s="8"/>
       <c r="D300" s="9"/>
       <c r="E300" s="9"/>
       <c r="F300" s="10"/>
       <c r="G300" s="10"/>
     </row>
-    <row r="301" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C301" s="8"/>
       <c r="D301" s="9"/>
       <c r="E301" s="9"/>
       <c r="F301" s="10"/>
       <c r="G301" s="10"/>
     </row>
-    <row r="302" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C302" s="8"/>
       <c r="D302" s="9"/>
       <c r="E302" s="9"/>
       <c r="F302" s="10"/>
       <c r="G302" s="10"/>
     </row>
-    <row r="303" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C303" s="8"/>
       <c r="D303" s="9"/>
       <c r="E303" s="9"/>
       <c r="F303" s="10"/>
       <c r="G303" s="10"/>
     </row>
-    <row r="304" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C304" s="8"/>
       <c r="D304" s="9"/>
       <c r="E304" s="9"/>

--- a/portfolio/posts/_data/TRUCK_RECORDS.xlsx
+++ b/portfolio/posts/_data/TRUCK_RECORDS.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1649" uniqueCount="146">
   <si>
     <t>Data checked through 2019</t>
   </si>
@@ -434,6 +434,33 @@
   </si>
   <si>
     <t>AlumaCraft to Washburn (and back) and LoneWolf (and back), MirroCraft to LoneWolf (and back)</t>
+  </si>
+  <si>
+    <t>Wausau KwikTrip</t>
+  </si>
+  <si>
+    <t>Park Falls Kwik Trip</t>
+  </si>
+  <si>
+    <t>Marion Kum&amp;Go</t>
+  </si>
+  <si>
+    <t>AC to Washburn</t>
+  </si>
+  <si>
+    <t>AC to Washburn (2x)</t>
+  </si>
+  <si>
+    <t>AC to Washburn; Tractor to Cable</t>
+  </si>
+  <si>
+    <t>Cloquet KwikTrip</t>
+  </si>
+  <si>
+    <t>AC to Billings Park</t>
+  </si>
+  <si>
+    <t>AC to Loons Foot (1.5x)</t>
   </si>
 </sst>
 </file>
@@ -1784,8 +1811,8 @@
   <dimension ref="A1:AD1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A301" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G326" sqref="G326:L327"/>
+      <pane ySplit="1" topLeftCell="A322" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I345" sqref="I345"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14080,174 +14107,727 @@
       </c>
     </row>
     <row r="328" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C328" s="8"/>
-      <c r="D328" s="9"/>
-      <c r="E328" s="9"/>
-      <c r="F328" s="10"/>
-      <c r="G328" s="10"/>
+      <c r="A328" s="33">
+        <v>45660</v>
+      </c>
+      <c r="B328" t="s">
+        <v>92</v>
+      </c>
+      <c r="C328" s="8">
+        <v>100458.8</v>
+      </c>
+      <c r="D328" s="9">
+        <v>13.451000000000001</v>
+      </c>
+      <c r="E328" s="9">
+        <v>2.6389999999999998</v>
+      </c>
+      <c r="F328" s="10">
+        <v>35.5</v>
+      </c>
+      <c r="G328" s="21">
+        <v>0</v>
+      </c>
+      <c r="H328" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I328" s="24">
+        <v>0</v>
+      </c>
+      <c r="K328" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L328" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="329" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C329" s="8"/>
-      <c r="D329" s="9"/>
-      <c r="E329" s="9"/>
-      <c r="F329" s="10"/>
-      <c r="G329" s="10"/>
+      <c r="A329" s="33">
+        <v>45691</v>
+      </c>
+      <c r="B329" t="s">
+        <v>17</v>
+      </c>
+      <c r="C329" s="8">
+        <v>100813.5</v>
+      </c>
+      <c r="D329" s="9">
+        <v>21.173999999999999</v>
+      </c>
+      <c r="E329" s="9">
+        <v>2.9990000000000001</v>
+      </c>
+      <c r="F329" s="10">
+        <v>63.5</v>
+      </c>
+      <c r="G329" s="21">
+        <v>0</v>
+      </c>
+      <c r="H329" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I329" s="24">
+        <v>0</v>
+      </c>
+      <c r="K329" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L329" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="330" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C330" s="8"/>
-      <c r="D330" s="9"/>
-      <c r="E330" s="9"/>
-      <c r="F330" s="10"/>
-      <c r="G330" s="10"/>
+      <c r="A330" s="33">
+        <v>45707</v>
+      </c>
+      <c r="B330" t="s">
+        <v>27</v>
+      </c>
+      <c r="C330" s="8">
+        <v>101020</v>
+      </c>
+      <c r="D330" s="9">
+        <v>13.49</v>
+      </c>
+      <c r="E330" s="9">
+        <v>3.0390000000000001</v>
+      </c>
+      <c r="F330" s="10">
+        <v>41</v>
+      </c>
+      <c r="G330" s="21">
+        <v>0</v>
+      </c>
+      <c r="H330" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I330" s="24">
+        <v>0</v>
+      </c>
+      <c r="K330" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L330" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="331" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C331" s="8"/>
-      <c r="D331" s="9"/>
-      <c r="E331" s="9"/>
-      <c r="F331" s="10"/>
-      <c r="G331" s="10"/>
+      <c r="A331" s="33">
+        <v>45732</v>
+      </c>
+      <c r="B331" t="s">
+        <v>137</v>
+      </c>
+      <c r="C331" s="8">
+        <v>101404.4</v>
+      </c>
+      <c r="D331" s="9">
+        <v>20.245000000000001</v>
+      </c>
+      <c r="E331" s="9">
+        <v>2.9390000000000001</v>
+      </c>
+      <c r="F331" s="10">
+        <v>59.5</v>
+      </c>
+      <c r="G331" s="21">
+        <v>0</v>
+      </c>
+      <c r="H331" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I331" s="24">
+        <v>0</v>
+      </c>
+      <c r="K331" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L331" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="332" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C332" s="8"/>
-      <c r="D332" s="9"/>
-      <c r="E332" s="9"/>
-      <c r="F332" s="10"/>
-      <c r="G332" s="10"/>
+      <c r="A332" s="33">
+        <v>45732</v>
+      </c>
+      <c r="B332" t="s">
+        <v>138</v>
+      </c>
+      <c r="C332" s="8">
+        <v>101587.6</v>
+      </c>
+      <c r="D332" s="9">
+        <v>9.4250000000000007</v>
+      </c>
+      <c r="E332" s="9">
+        <v>2.7589999999999999</v>
+      </c>
+      <c r="F332" s="10">
+        <v>26</v>
+      </c>
+      <c r="G332" s="21">
+        <v>0</v>
+      </c>
+      <c r="H332" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I332" s="24">
+        <v>0</v>
+      </c>
+      <c r="K332" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L332" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="333" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C333" s="8"/>
-      <c r="D333" s="9"/>
-      <c r="E333" s="9"/>
-      <c r="F333" s="10"/>
-      <c r="G333" s="10"/>
+      <c r="A333" s="33">
+        <v>45738</v>
+      </c>
+      <c r="B333" t="s">
+        <v>92</v>
+      </c>
+      <c r="C333" s="8">
+        <v>101853.7</v>
+      </c>
+      <c r="D333" s="9">
+        <v>13.763</v>
+      </c>
+      <c r="E333" s="9">
+        <v>2.7789999999999999</v>
+      </c>
+      <c r="F333" s="10">
+        <v>38.25</v>
+      </c>
+      <c r="G333" s="21">
+        <v>0</v>
+      </c>
+      <c r="H333" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I333" s="24">
+        <v>0</v>
+      </c>
+      <c r="K333" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L333" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="334" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C334" s="8"/>
-      <c r="D334" s="9"/>
-      <c r="E334" s="9"/>
-      <c r="F334" s="10"/>
-      <c r="G334" s="10"/>
+      <c r="A334" s="33">
+        <v>45742</v>
+      </c>
+      <c r="B334" t="s">
+        <v>139</v>
+      </c>
+      <c r="C334" s="8">
+        <v>102310.8</v>
+      </c>
+      <c r="D334" s="9">
+        <v>20.954000000000001</v>
+      </c>
+      <c r="E334" s="9">
+        <v>2.899</v>
+      </c>
+      <c r="F334" s="10">
+        <v>60.75</v>
+      </c>
+      <c r="G334" s="21">
+        <v>0</v>
+      </c>
+      <c r="H334" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I334" s="24">
+        <v>0</v>
+      </c>
+      <c r="K334" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L334" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="335" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C335" s="8"/>
-      <c r="D335" s="9"/>
-      <c r="E335" s="9"/>
-      <c r="F335" s="10"/>
-      <c r="G335" s="10"/>
+      <c r="A335" s="33">
+        <v>45745</v>
+      </c>
+      <c r="B335" t="s">
+        <v>133</v>
+      </c>
+      <c r="C335" s="8">
+        <v>102624.2</v>
+      </c>
+      <c r="D335" s="9">
+        <v>16.193999999999999</v>
+      </c>
+      <c r="E335" s="9">
+        <v>2.899</v>
+      </c>
+      <c r="F335" s="10">
+        <v>46.95</v>
+      </c>
+      <c r="G335" s="21">
+        <v>0</v>
+      </c>
+      <c r="H335" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I335" s="24">
+        <v>0</v>
+      </c>
+      <c r="K335" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L335" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="336" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C336" s="8"/>
-      <c r="D336" s="9"/>
-      <c r="E336" s="9"/>
-      <c r="F336" s="10"/>
-      <c r="G336" s="10"/>
-    </row>
-    <row r="337" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C337" s="8"/>
-      <c r="D337" s="9"/>
-      <c r="E337" s="9"/>
-      <c r="F337" s="10"/>
-      <c r="G337" s="10"/>
-    </row>
-    <row r="338" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C338" s="8"/>
-      <c r="D338" s="9"/>
-      <c r="E338" s="9"/>
-      <c r="F338" s="10"/>
-      <c r="G338" s="10"/>
-    </row>
-    <row r="339" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C339" s="8"/>
-      <c r="D339" s="9"/>
-      <c r="E339" s="9"/>
-      <c r="F339" s="10"/>
-      <c r="G339" s="10"/>
-    </row>
-    <row r="340" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C340" s="8"/>
-      <c r="D340" s="9"/>
-      <c r="E340" s="9"/>
-      <c r="F340" s="10"/>
-      <c r="G340" s="10"/>
-    </row>
-    <row r="341" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C341" s="8"/>
-      <c r="D341" s="9"/>
-      <c r="E341" s="9"/>
-      <c r="F341" s="10"/>
-      <c r="G341" s="10"/>
-    </row>
-    <row r="342" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C342" s="8"/>
-      <c r="D342" s="9"/>
-      <c r="E342" s="9"/>
-      <c r="F342" s="10"/>
-      <c r="G342" s="10"/>
-    </row>
-    <row r="343" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C343" s="8"/>
-      <c r="D343" s="9"/>
-      <c r="E343" s="9"/>
-      <c r="F343" s="10"/>
-      <c r="G343" s="10"/>
-    </row>
-    <row r="344" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C344" s="8"/>
-      <c r="D344" s="9"/>
-      <c r="E344" s="9"/>
-      <c r="F344" s="10"/>
-      <c r="G344" s="10"/>
-    </row>
-    <row r="345" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C345" s="8"/>
-      <c r="D345" s="9"/>
-      <c r="E345" s="9"/>
-      <c r="F345" s="10"/>
-      <c r="G345" s="10"/>
-    </row>
-    <row r="346" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C346" s="8"/>
-      <c r="D346" s="9"/>
-      <c r="E346" s="9"/>
-      <c r="F346" s="10"/>
-      <c r="G346" s="10"/>
-    </row>
-    <row r="347" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A336" s="33">
+        <v>45756</v>
+      </c>
+      <c r="B336" t="s">
+        <v>27</v>
+      </c>
+      <c r="C336" s="8">
+        <v>102962.3</v>
+      </c>
+      <c r="D336" s="9">
+        <v>17.117999999999999</v>
+      </c>
+      <c r="E336" s="9">
+        <v>3.1989999999999998</v>
+      </c>
+      <c r="F336" s="10">
+        <v>54.76</v>
+      </c>
+      <c r="G336" s="21">
+        <v>0</v>
+      </c>
+      <c r="H336" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I336" s="24">
+        <v>0</v>
+      </c>
+      <c r="K336" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L336" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="337" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A337" s="33">
+        <v>45764</v>
+      </c>
+      <c r="B337" t="s">
+        <v>77</v>
+      </c>
+      <c r="C337" s="8">
+        <v>103146.1</v>
+      </c>
+      <c r="D337" s="9">
+        <v>9.5890000000000004</v>
+      </c>
+      <c r="E337" s="9">
+        <v>3.0289999999999999</v>
+      </c>
+      <c r="F337" s="10">
+        <v>29.05</v>
+      </c>
+      <c r="G337" s="21">
+        <v>0</v>
+      </c>
+      <c r="H337" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I337" s="24">
+        <v>0</v>
+      </c>
+      <c r="K337" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L337" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="338" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A338" s="33">
+        <v>45772</v>
+      </c>
+      <c r="B338" t="s">
+        <v>118</v>
+      </c>
+      <c r="C338" s="8">
+        <v>103420</v>
+      </c>
+      <c r="D338" s="9">
+        <v>16.963000000000001</v>
+      </c>
+      <c r="E338" s="9">
+        <v>3.169</v>
+      </c>
+      <c r="F338" s="10">
+        <v>53.76</v>
+      </c>
+      <c r="G338" s="21">
+        <v>0</v>
+      </c>
+      <c r="H338" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I338" s="24">
+        <v>70</v>
+      </c>
+      <c r="K338" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L338" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M338" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="339" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A339" s="33">
+        <v>45775</v>
+      </c>
+      <c r="B339" t="s">
+        <v>92</v>
+      </c>
+      <c r="C339" s="8">
+        <v>103580.2</v>
+      </c>
+      <c r="D339" s="9">
+        <v>7.9690000000000003</v>
+      </c>
+      <c r="E339" s="9">
+        <v>2.7290000000000001</v>
+      </c>
+      <c r="F339" s="10">
+        <v>21.75</v>
+      </c>
+      <c r="G339" s="21">
+        <v>0</v>
+      </c>
+      <c r="H339" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I339" s="24">
+        <v>0</v>
+      </c>
+      <c r="K339" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L339" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="340" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A340" s="33">
+        <v>45784</v>
+      </c>
+      <c r="B340" t="s">
+        <v>17</v>
+      </c>
+      <c r="C340" s="8">
+        <v>103897</v>
+      </c>
+      <c r="D340" s="9">
+        <v>21.007000000000001</v>
+      </c>
+      <c r="E340" s="9">
+        <v>2.9990000000000001</v>
+      </c>
+      <c r="F340" s="10">
+        <v>63</v>
+      </c>
+      <c r="G340" s="21">
+        <v>0</v>
+      </c>
+      <c r="H340" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I340" s="24">
+        <v>140</v>
+      </c>
+      <c r="K340" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L340" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M340" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="341" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A341" s="33">
+        <v>45790</v>
+      </c>
+      <c r="B341" t="s">
+        <v>17</v>
+      </c>
+      <c r="C341" s="8">
+        <v>104174.39999999999</v>
+      </c>
+      <c r="D341" s="9">
+        <v>16.175000000000001</v>
+      </c>
+      <c r="E341" s="9">
+        <v>2.9990000000000001</v>
+      </c>
+      <c r="F341" s="10">
+        <v>48.51</v>
+      </c>
+      <c r="G341" s="21">
+        <v>0</v>
+      </c>
+      <c r="H341" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I341" s="24">
+        <v>120</v>
+      </c>
+      <c r="K341" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L341" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M341" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="342" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A342" s="33">
+        <v>45801</v>
+      </c>
+      <c r="B342" t="s">
+        <v>143</v>
+      </c>
+      <c r="C342" s="8">
+        <v>104459.2</v>
+      </c>
+      <c r="D342" s="9">
+        <v>18.757999999999999</v>
+      </c>
+      <c r="E342" s="9">
+        <v>2.6789999999999998</v>
+      </c>
+      <c r="F342" s="10">
+        <v>50.25</v>
+      </c>
+      <c r="G342" s="21">
+        <v>0</v>
+      </c>
+      <c r="H342" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I342" s="24">
+        <v>120</v>
+      </c>
+      <c r="K342" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L342" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M342" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="343" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A343" s="33">
+        <v>45802</v>
+      </c>
+      <c r="B343" t="s">
+        <v>143</v>
+      </c>
+      <c r="C343" s="8">
+        <v>104807.8</v>
+      </c>
+      <c r="D343" s="9">
+        <v>16.89</v>
+      </c>
+      <c r="E343" s="9">
+        <v>2.6789999999999998</v>
+      </c>
+      <c r="F343" s="10">
+        <v>45.25</v>
+      </c>
+      <c r="G343" s="21">
+        <v>0</v>
+      </c>
+      <c r="H343" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I343" s="24">
+        <v>0</v>
+      </c>
+      <c r="K343" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L343" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="344" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A344" s="33">
+        <v>45812</v>
+      </c>
+      <c r="B344" t="s">
+        <v>73</v>
+      </c>
+      <c r="C344" s="8">
+        <v>105140.9</v>
+      </c>
+      <c r="D344" s="9">
+        <v>20.684000000000001</v>
+      </c>
+      <c r="E344" s="9">
+        <v>2.6589999999999998</v>
+      </c>
+      <c r="F344" s="10">
+        <v>55</v>
+      </c>
+      <c r="G344" s="21">
+        <v>0</v>
+      </c>
+      <c r="H344" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I344" s="24">
+        <v>125</v>
+      </c>
+      <c r="K344" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L344" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M344" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="345" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A345" s="33">
+        <v>45817</v>
+      </c>
+      <c r="B345" t="s">
+        <v>77</v>
+      </c>
+      <c r="C345" s="8">
+        <v>105396</v>
+      </c>
+      <c r="D345" s="9">
+        <v>15.196999999999999</v>
+      </c>
+      <c r="E345" s="9">
+        <v>3.0990000000000002</v>
+      </c>
+      <c r="F345" s="10">
+        <v>47.1</v>
+      </c>
+      <c r="G345" s="21">
+        <v>0</v>
+      </c>
+      <c r="H345" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I345" s="24">
+        <v>125</v>
+      </c>
+      <c r="K345" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L345" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M345" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="346" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A346" s="33">
+        <v>45819</v>
+      </c>
+      <c r="B346" t="s">
+        <v>73</v>
+      </c>
+      <c r="C346" s="8">
+        <v>105607.8</v>
+      </c>
+      <c r="D346" s="9">
+        <v>13.664</v>
+      </c>
+      <c r="E346" s="9">
+        <v>2.7989999999999999</v>
+      </c>
+      <c r="F346" s="10">
+        <v>38.25</v>
+      </c>
+      <c r="G346" s="21">
+        <v>0</v>
+      </c>
+      <c r="H346" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I346" s="24">
+        <v>125</v>
+      </c>
+      <c r="K346" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L346" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M346" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="347" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C347" s="8"/>
       <c r="D347" s="9"/>
       <c r="E347" s="9"/>
       <c r="F347" s="10"/>
       <c r="G347" s="10"/>
     </row>
-    <row r="348" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C348" s="8"/>
       <c r="D348" s="9"/>
       <c r="E348" s="9"/>
       <c r="F348" s="10"/>
       <c r="G348" s="10"/>
     </row>
-    <row r="349" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C349" s="8"/>
       <c r="D349" s="9"/>
       <c r="E349" s="9"/>
       <c r="F349" s="10"/>
       <c r="G349" s="10"/>
     </row>
-    <row r="350" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C350" s="8"/>
       <c r="D350" s="9"/>
       <c r="E350" s="9"/>
       <c r="F350" s="10"/>
       <c r="G350" s="10"/>
     </row>
-    <row r="351" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C351" s="8"/>
       <c r="D351" s="9"/>
       <c r="E351" s="9"/>
       <c r="F351" s="10"/>
       <c r="G351" s="10"/>
     </row>
-    <row r="352" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C352" s="8"/>
       <c r="D352" s="9"/>
       <c r="E352" s="9"/>

--- a/portfolio/posts/_data/TRUCK_RECORDS.xlsx
+++ b/portfolio/posts/_data/TRUCK_RECORDS.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1649" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1764" uniqueCount="162">
   <si>
     <t>Data checked through 2019</t>
   </si>
@@ -461,6 +461,54 @@
   </si>
   <si>
     <t>AC to Loons Foot (1.5x)</t>
+  </si>
+  <si>
+    <t>Rice Lake Cenex</t>
+  </si>
+  <si>
+    <t>Carlton KwikTrip</t>
+  </si>
+  <si>
+    <t>AC to Loons Foot (0.5x)</t>
+  </si>
+  <si>
+    <t>AC to Loons Foot (1x)</t>
+  </si>
+  <si>
+    <t>Tomah KwikTrip</t>
+  </si>
+  <si>
+    <t>Chicago BP</t>
+  </si>
+  <si>
+    <t>Calmar KwikStar</t>
+  </si>
+  <si>
+    <t>Chippewa KwikTrip</t>
+  </si>
+  <si>
+    <t>Lots of idling for Cash</t>
+  </si>
+  <si>
+    <t>Duluth CircleK</t>
+  </si>
+  <si>
+    <t>AC to Lone Wolf, wood from Ashland</t>
+  </si>
+  <si>
+    <t>JD to property</t>
+  </si>
+  <si>
+    <t>AC to Washburn, MC to Lonewolf (0.5X)</t>
+  </si>
+  <si>
+    <t>MC to Lonewolf (0.5x)</t>
+  </si>
+  <si>
+    <t>JD to Ino (0.5x)</t>
+  </si>
+  <si>
+    <t>AC to Lonewolf</t>
   </si>
 </sst>
 </file>
@@ -1811,8 +1859,8 @@
   <dimension ref="A1:AD1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A322" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I345" sqref="I345"/>
+      <pane ySplit="1" topLeftCell="A351" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H373" sqref="H373"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14793,265 +14841,1010 @@
       </c>
     </row>
     <row r="347" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C347" s="8"/>
-      <c r="D347" s="9"/>
-      <c r="E347" s="9"/>
-      <c r="F347" s="10"/>
-      <c r="G347" s="10"/>
+      <c r="A347" s="33">
+        <v>45822</v>
+      </c>
+      <c r="B347" t="s">
+        <v>92</v>
+      </c>
+      <c r="C347" s="8">
+        <v>105747.3</v>
+      </c>
+      <c r="D347" s="9">
+        <v>7.8869999999999996</v>
+      </c>
+      <c r="E347" s="9">
+        <v>2.4089999999999998</v>
+      </c>
+      <c r="F347" s="10">
+        <v>19</v>
+      </c>
+      <c r="G347" s="21">
+        <v>0</v>
+      </c>
+      <c r="H347" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I347" s="24">
+        <v>40</v>
+      </c>
+      <c r="K347" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L347" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M347" s="3" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="348" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C348" s="8"/>
-      <c r="D348" s="9"/>
-      <c r="E348" s="9"/>
-      <c r="F348" s="10"/>
-      <c r="G348" s="10"/>
+      <c r="A348" s="33">
+        <v>45830</v>
+      </c>
+      <c r="B348" t="s">
+        <v>146</v>
+      </c>
+      <c r="C348" s="8">
+        <v>106079.7</v>
+      </c>
+      <c r="D348" s="9">
+        <v>18.338000000000001</v>
+      </c>
+      <c r="E348" s="9">
+        <v>3.129</v>
+      </c>
+      <c r="F348" s="10">
+        <v>57.38</v>
+      </c>
+      <c r="G348" s="21">
+        <v>0</v>
+      </c>
+      <c r="H348" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I348" s="24">
+        <v>80</v>
+      </c>
+      <c r="K348" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L348" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M348" s="3" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="349" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C349" s="8"/>
-      <c r="D349" s="9"/>
-      <c r="E349" s="9"/>
-      <c r="F349" s="10"/>
-      <c r="G349" s="10"/>
+      <c r="A349" s="33">
+        <v>45830</v>
+      </c>
+      <c r="B349" t="s">
+        <v>147</v>
+      </c>
+      <c r="C349" s="8">
+        <v>106360.7</v>
+      </c>
+      <c r="D349" s="9">
+        <v>13.863</v>
+      </c>
+      <c r="E349" s="9">
+        <v>2.8490000000000002</v>
+      </c>
+      <c r="F349" s="10">
+        <v>39.5</v>
+      </c>
+      <c r="G349" s="21">
+        <v>0</v>
+      </c>
+      <c r="H349" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I349" s="24">
+        <v>0</v>
+      </c>
+      <c r="K349" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L349" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="350" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C350" s="8"/>
-      <c r="D350" s="9"/>
-      <c r="E350" s="9"/>
-      <c r="F350" s="10"/>
-      <c r="G350" s="10"/>
+      <c r="A350" s="33">
+        <v>45840</v>
+      </c>
+      <c r="B350" t="s">
+        <v>73</v>
+      </c>
+      <c r="C350" s="8">
+        <v>106711.9</v>
+      </c>
+      <c r="D350" s="9">
+        <v>21.091000000000001</v>
+      </c>
+      <c r="E350" s="9">
+        <v>2.9990000000000001</v>
+      </c>
+      <c r="F350" s="10">
+        <v>63.25</v>
+      </c>
+      <c r="G350" s="21">
+        <v>0</v>
+      </c>
+      <c r="H350" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I350" s="24">
+        <v>40</v>
+      </c>
+      <c r="K350" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L350" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M350" s="3" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="351" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C351" s="8"/>
-      <c r="D351" s="9"/>
-      <c r="E351" s="9"/>
-      <c r="F351" s="10"/>
-      <c r="G351" s="10"/>
+      <c r="A351" s="33">
+        <v>45848</v>
+      </c>
+      <c r="B351" t="s">
+        <v>118</v>
+      </c>
+      <c r="C351" s="8">
+        <v>107014.39999999999</v>
+      </c>
+      <c r="D351" s="9">
+        <v>16.132999999999999</v>
+      </c>
+      <c r="E351" s="9">
+        <v>3.0990000000000002</v>
+      </c>
+      <c r="F351" s="10">
+        <v>50</v>
+      </c>
+      <c r="G351" s="21">
+        <v>0</v>
+      </c>
+      <c r="H351" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I351" s="24">
+        <v>40</v>
+      </c>
+      <c r="K351" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L351" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M351" s="3" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="352" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C352" s="8"/>
-      <c r="D352" s="9"/>
-      <c r="E352" s="9"/>
-      <c r="F352" s="10"/>
-      <c r="G352" s="10"/>
-    </row>
-    <row r="353" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C353" s="8"/>
-      <c r="D353" s="9"/>
-      <c r="E353" s="9"/>
-      <c r="F353" s="10"/>
-      <c r="G353" s="10"/>
-    </row>
-    <row r="354" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C354" s="8"/>
-      <c r="D354" s="9"/>
-      <c r="E354" s="9"/>
-      <c r="F354" s="10"/>
-      <c r="G354" s="10"/>
-    </row>
-    <row r="355" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C355" s="8"/>
-      <c r="D355" s="9"/>
-      <c r="E355" s="9"/>
-      <c r="F355" s="10"/>
-      <c r="G355" s="10"/>
-    </row>
-    <row r="356" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C356" s="8"/>
-      <c r="D356" s="9"/>
-      <c r="E356" s="9"/>
-      <c r="F356" s="10"/>
-      <c r="G356" s="10"/>
-    </row>
-    <row r="357" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C357" s="8"/>
-      <c r="D357" s="9"/>
-      <c r="E357" s="9"/>
-      <c r="F357" s="10"/>
-      <c r="G357" s="10"/>
-    </row>
-    <row r="358" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C358" s="8"/>
-      <c r="D358" s="9"/>
-      <c r="E358" s="9"/>
-      <c r="F358" s="10"/>
-      <c r="G358" s="10"/>
-    </row>
-    <row r="359" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C359" s="8"/>
-      <c r="D359" s="9"/>
-      <c r="E359" s="9"/>
-      <c r="F359" s="10"/>
-      <c r="G359" s="10"/>
-    </row>
-    <row r="360" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C360" s="8"/>
-      <c r="D360" s="9"/>
-      <c r="E360" s="9"/>
-      <c r="F360" s="10"/>
-      <c r="G360" s="10"/>
-    </row>
-    <row r="361" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C361" s="8"/>
-      <c r="D361" s="9"/>
-      <c r="E361" s="9"/>
-      <c r="F361" s="10"/>
-      <c r="G361" s="10"/>
-    </row>
-    <row r="362" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C362" s="8"/>
-      <c r="D362" s="9"/>
-      <c r="E362" s="9"/>
-      <c r="F362" s="10"/>
-      <c r="G362" s="10"/>
-    </row>
-    <row r="363" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C363" s="8"/>
-      <c r="D363" s="9"/>
-      <c r="E363" s="9"/>
-      <c r="F363" s="10"/>
-      <c r="G363" s="10"/>
-    </row>
-    <row r="364" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C364" s="8"/>
-      <c r="D364" s="9"/>
-      <c r="E364" s="9"/>
-      <c r="F364" s="10"/>
-      <c r="G364" s="10"/>
-    </row>
-    <row r="365" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C365" s="8"/>
-      <c r="D365" s="9"/>
-      <c r="E365" s="9"/>
-      <c r="F365" s="10"/>
-      <c r="G365" s="10"/>
-    </row>
-    <row r="366" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C366" s="8"/>
-      <c r="D366" s="9"/>
-      <c r="E366" s="9"/>
-      <c r="F366" s="10"/>
-      <c r="G366" s="10"/>
-    </row>
-    <row r="367" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C367" s="8"/>
-      <c r="D367" s="9"/>
-      <c r="E367" s="9"/>
-      <c r="F367" s="10"/>
-      <c r="G367" s="10"/>
-    </row>
-    <row r="368" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C368" s="8"/>
-      <c r="D368" s="9"/>
-      <c r="E368" s="9"/>
-      <c r="F368" s="10"/>
-      <c r="G368" s="10"/>
-    </row>
-    <row r="369" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C369" s="8"/>
-      <c r="D369" s="9"/>
-      <c r="E369" s="9"/>
-      <c r="F369" s="10"/>
-      <c r="G369" s="10"/>
-    </row>
-    <row r="370" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C370" s="8"/>
-      <c r="D370" s="9"/>
-      <c r="E370" s="9"/>
-      <c r="F370" s="10"/>
-      <c r="G370" s="10"/>
-    </row>
-    <row r="371" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C371" s="8"/>
-      <c r="D371" s="9"/>
-      <c r="E371" s="9"/>
-      <c r="F371" s="10"/>
-      <c r="G371" s="10"/>
-    </row>
-    <row r="372" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A352" s="33">
+        <v>45858</v>
+      </c>
+      <c r="B352" t="s">
+        <v>128</v>
+      </c>
+      <c r="C352" s="8">
+        <v>107328.9</v>
+      </c>
+      <c r="D352" s="9">
+        <v>17.463000000000001</v>
+      </c>
+      <c r="E352" s="9">
+        <v>3.0489999999999999</v>
+      </c>
+      <c r="F352" s="10">
+        <v>53.24</v>
+      </c>
+      <c r="G352" s="21">
+        <v>0</v>
+      </c>
+      <c r="H352" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I352" s="24">
+        <v>0</v>
+      </c>
+      <c r="K352" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L352" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="353" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A353" s="33">
+        <v>45859</v>
+      </c>
+      <c r="B353" t="s">
+        <v>150</v>
+      </c>
+      <c r="C353" s="8">
+        <v>107531</v>
+      </c>
+      <c r="D353" s="9">
+        <v>10.27</v>
+      </c>
+      <c r="E353" s="9">
+        <v>2.9590000000000001</v>
+      </c>
+      <c r="F353" s="10">
+        <v>30.39</v>
+      </c>
+      <c r="G353" s="21">
+        <v>0</v>
+      </c>
+      <c r="H353" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I353" s="24">
+        <v>0</v>
+      </c>
+      <c r="K353" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L353" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M353" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="354" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A354" s="33">
+        <v>45860</v>
+      </c>
+      <c r="B354" t="s">
+        <v>151</v>
+      </c>
+      <c r="C354" s="8">
+        <v>107875.5</v>
+      </c>
+      <c r="D354" s="9">
+        <v>17.227</v>
+      </c>
+      <c r="E354" s="9">
+        <v>3.5990000000000002</v>
+      </c>
+      <c r="F354" s="10">
+        <v>62</v>
+      </c>
+      <c r="G354" s="21">
+        <v>0</v>
+      </c>
+      <c r="H354" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I354" s="24">
+        <v>0</v>
+      </c>
+      <c r="K354" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L354" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="355" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A355" s="33">
+        <v>45865</v>
+      </c>
+      <c r="B355" t="s">
+        <v>152</v>
+      </c>
+      <c r="C355" s="8">
+        <v>108283.8</v>
+      </c>
+      <c r="D355" s="9">
+        <v>19.687000000000001</v>
+      </c>
+      <c r="E355" s="9">
+        <v>3.0990000000000002</v>
+      </c>
+      <c r="F355" s="10">
+        <v>61.01</v>
+      </c>
+      <c r="G355" s="21">
+        <v>0</v>
+      </c>
+      <c r="H355" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I355" s="24">
+        <v>0</v>
+      </c>
+      <c r="K355" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L355" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="356" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A356" s="33">
+        <v>45866</v>
+      </c>
+      <c r="B356" t="s">
+        <v>153</v>
+      </c>
+      <c r="C356" s="8">
+        <v>108595.9</v>
+      </c>
+      <c r="D356" s="9">
+        <v>13.627000000000001</v>
+      </c>
+      <c r="E356" s="9">
+        <v>2.899</v>
+      </c>
+      <c r="F356" s="10">
+        <v>39.5</v>
+      </c>
+      <c r="G356" s="21">
+        <v>0</v>
+      </c>
+      <c r="H356" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I356" s="24">
+        <v>0</v>
+      </c>
+      <c r="K356" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L356" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="357" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A357" s="33">
+        <v>45868</v>
+      </c>
+      <c r="B357" t="s">
+        <v>92</v>
+      </c>
+      <c r="C357" s="8">
+        <v>108825.4</v>
+      </c>
+      <c r="D357" s="9">
+        <v>10.912000000000001</v>
+      </c>
+      <c r="E357" s="9">
+        <v>2.7490000000000001</v>
+      </c>
+      <c r="F357" s="10">
+        <v>30</v>
+      </c>
+      <c r="G357" s="21">
+        <v>0</v>
+      </c>
+      <c r="H357" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I357" s="24">
+        <v>0</v>
+      </c>
+      <c r="K357" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L357" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="358" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A358" s="33">
+        <v>45882</v>
+      </c>
+      <c r="B358" t="s">
+        <v>17</v>
+      </c>
+      <c r="C358" s="8">
+        <v>109173.1</v>
+      </c>
+      <c r="D358" s="9">
+        <v>20.172999999999998</v>
+      </c>
+      <c r="E358" s="9">
+        <v>2.9990000000000001</v>
+      </c>
+      <c r="F358" s="10">
+        <v>60.5</v>
+      </c>
+      <c r="G358" s="21">
+        <v>0</v>
+      </c>
+      <c r="H358" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I358" s="24">
+        <v>80</v>
+      </c>
+      <c r="K358" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L358" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M358" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="359" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A359" s="33">
+        <v>45890</v>
+      </c>
+      <c r="B359" t="s">
+        <v>92</v>
+      </c>
+      <c r="C359" s="8">
+        <v>109466.7</v>
+      </c>
+      <c r="D359" s="17">
+        <v>14.173</v>
+      </c>
+      <c r="E359" s="9">
+        <v>2.6989999999999998</v>
+      </c>
+      <c r="F359" s="10">
+        <v>38.25</v>
+      </c>
+      <c r="G359" s="21">
+        <v>0</v>
+      </c>
+      <c r="H359" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I359" s="24">
+        <v>0</v>
+      </c>
+      <c r="K359" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L359" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="360" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A360" s="33">
+        <v>45898</v>
+      </c>
+      <c r="B360" t="s">
+        <v>17</v>
+      </c>
+      <c r="C360" s="8">
+        <v>109850.7</v>
+      </c>
+      <c r="D360" s="9">
+        <v>20.088999999999999</v>
+      </c>
+      <c r="E360" s="9">
+        <v>3.0990000000000002</v>
+      </c>
+      <c r="F360" s="10">
+        <v>62.26</v>
+      </c>
+      <c r="G360" s="21">
+        <v>0</v>
+      </c>
+      <c r="H360" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I360" s="24">
+        <v>0</v>
+      </c>
+      <c r="K360" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L360" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="361" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A361" s="33">
+        <v>45899</v>
+      </c>
+      <c r="B361" t="s">
+        <v>155</v>
+      </c>
+      <c r="C361" s="8">
+        <v>110210</v>
+      </c>
+      <c r="D361" s="17">
+        <v>16.646999999999998</v>
+      </c>
+      <c r="E361" s="9">
+        <v>3.0489999999999999</v>
+      </c>
+      <c r="F361" s="10">
+        <v>50.76</v>
+      </c>
+      <c r="G361" s="21">
+        <v>0</v>
+      </c>
+      <c r="H361" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I361" s="24">
+        <v>0</v>
+      </c>
+      <c r="K361" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L361" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="362" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A362" s="33">
+        <v>45907</v>
+      </c>
+      <c r="B362" t="s">
+        <v>17</v>
+      </c>
+      <c r="C362" s="8">
+        <v>110523.3</v>
+      </c>
+      <c r="D362" s="17">
+        <v>16.134</v>
+      </c>
+      <c r="E362" s="9">
+        <v>3.0990000000000002</v>
+      </c>
+      <c r="F362" s="10">
+        <v>50</v>
+      </c>
+      <c r="G362" s="21">
+        <v>0</v>
+      </c>
+      <c r="H362" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I362" s="24">
+        <v>95</v>
+      </c>
+      <c r="K362" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L362" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M362" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="363" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A363" s="33">
+        <v>45912</v>
+      </c>
+      <c r="B363" t="s">
+        <v>118</v>
+      </c>
+      <c r="C363" s="8">
+        <v>110748.5</v>
+      </c>
+      <c r="D363" s="9">
+        <v>13.021000000000001</v>
+      </c>
+      <c r="E363" s="9">
+        <v>2.899</v>
+      </c>
+      <c r="F363" s="10">
+        <v>37.75</v>
+      </c>
+      <c r="G363" s="21">
+        <v>0</v>
+      </c>
+      <c r="H363" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I363" s="24">
+        <v>70</v>
+      </c>
+      <c r="K363" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L363" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M363" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="364" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A364" s="33">
+        <v>45919</v>
+      </c>
+      <c r="B364" t="s">
+        <v>119</v>
+      </c>
+      <c r="C364" s="8">
+        <v>110032.3</v>
+      </c>
+      <c r="D364" s="9">
+        <v>18.021999999999998</v>
+      </c>
+      <c r="E364" s="9">
+        <v>2.899</v>
+      </c>
+      <c r="F364" s="10">
+        <v>52.25</v>
+      </c>
+      <c r="G364" s="21">
+        <v>0</v>
+      </c>
+      <c r="H364" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I364" s="24">
+        <v>140</v>
+      </c>
+      <c r="K364" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L364" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M364" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="365" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A365" s="33">
+        <v>45928</v>
+      </c>
+      <c r="B365" t="s">
+        <v>17</v>
+      </c>
+      <c r="C365" s="8">
+        <v>111316.3</v>
+      </c>
+      <c r="D365" s="9">
+        <v>17.161999999999999</v>
+      </c>
+      <c r="E365" s="9">
+        <v>2.899</v>
+      </c>
+      <c r="F365" s="10">
+        <v>49.75</v>
+      </c>
+      <c r="G365" s="21">
+        <v>0</v>
+      </c>
+      <c r="H365" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I365" s="24">
+        <v>70</v>
+      </c>
+      <c r="K365" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L365" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M365" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="366" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A366" s="33">
+        <v>45941</v>
+      </c>
+      <c r="B366" t="s">
+        <v>17</v>
+      </c>
+      <c r="C366" s="8">
+        <v>111611.1</v>
+      </c>
+      <c r="D366" s="9">
+        <v>18.847000000000001</v>
+      </c>
+      <c r="E366" s="9">
+        <v>2.7989999999999999</v>
+      </c>
+      <c r="F366" s="10">
+        <v>52.75</v>
+      </c>
+      <c r="G366" s="21">
+        <v>0</v>
+      </c>
+      <c r="H366" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I366" s="24">
+        <v>50</v>
+      </c>
+      <c r="K366" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L366" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M366" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="367" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A367" s="33">
+        <v>45945</v>
+      </c>
+      <c r="B367" t="s">
+        <v>118</v>
+      </c>
+      <c r="C367" s="8">
+        <v>111821.4</v>
+      </c>
+      <c r="D367" s="9">
+        <v>14.571999999999999</v>
+      </c>
+      <c r="E367" s="9">
+        <v>2.7789999999999999</v>
+      </c>
+      <c r="F367" s="10">
+        <v>40.5</v>
+      </c>
+      <c r="G367" s="21">
+        <v>0</v>
+      </c>
+      <c r="H367" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I367" s="24">
+        <v>100</v>
+      </c>
+      <c r="K367" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L367" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M367" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="368" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A368" s="33">
+        <v>45948</v>
+      </c>
+      <c r="B368" t="s">
+        <v>77</v>
+      </c>
+      <c r="C368" s="8">
+        <v>112020.4</v>
+      </c>
+      <c r="D368" s="9">
+        <v>9.7650000000000006</v>
+      </c>
+      <c r="E368" s="9">
+        <v>2.7389999999999999</v>
+      </c>
+      <c r="F368" s="10">
+        <v>26.75</v>
+      </c>
+      <c r="G368" s="21">
+        <v>0</v>
+      </c>
+      <c r="H368" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I368" s="24">
+        <v>30</v>
+      </c>
+      <c r="K368" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L368" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M368" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="369" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A369" s="33">
+        <v>45960</v>
+      </c>
+      <c r="B369" t="s">
+        <v>17</v>
+      </c>
+      <c r="C369" s="8">
+        <v>112318.3</v>
+      </c>
+      <c r="D369" s="9">
+        <v>18.800999999999998</v>
+      </c>
+      <c r="E369" s="9">
+        <v>2.899</v>
+      </c>
+      <c r="F369" s="10">
+        <v>48.5</v>
+      </c>
+      <c r="G369" s="21">
+        <v>0</v>
+      </c>
+      <c r="H369" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I369" s="24">
+        <v>30</v>
+      </c>
+      <c r="K369" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L369" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M369" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="370" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A370" s="33">
+        <v>45963</v>
+      </c>
+      <c r="B370" t="s">
+        <v>92</v>
+      </c>
+      <c r="C370" s="8">
+        <v>112411.2</v>
+      </c>
+      <c r="D370" s="9">
+        <v>4.8079999999999998</v>
+      </c>
+      <c r="E370" s="9">
+        <v>2.5990000000000002</v>
+      </c>
+      <c r="F370" s="10">
+        <v>12.5</v>
+      </c>
+      <c r="G370" s="21">
+        <v>0</v>
+      </c>
+      <c r="H370" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I370" s="24">
+        <v>0</v>
+      </c>
+      <c r="K370" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L370" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="371" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A371" s="33">
+        <v>45971</v>
+      </c>
+      <c r="B371" t="s">
+        <v>17</v>
+      </c>
+      <c r="C371" s="8">
+        <v>112781.2</v>
+      </c>
+      <c r="D371" s="9">
+        <v>20.696000000000002</v>
+      </c>
+      <c r="E371" s="9">
+        <v>2.899</v>
+      </c>
+      <c r="F371" s="10">
+        <v>60</v>
+      </c>
+      <c r="G371" s="21">
+        <v>0</v>
+      </c>
+      <c r="H371" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I371" s="24">
+        <v>60</v>
+      </c>
+      <c r="K371" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L371" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M371" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="372" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C372" s="8"/>
       <c r="D372" s="9"/>
       <c r="E372" s="9"/>
       <c r="F372" s="10"/>
       <c r="G372" s="10"/>
     </row>
-    <row r="373" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C373" s="8"/>
       <c r="D373" s="9"/>
       <c r="E373" s="9"/>
       <c r="F373" s="10"/>
       <c r="G373" s="10"/>
     </row>
-    <row r="374" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C374" s="8"/>
       <c r="D374" s="9"/>
       <c r="E374" s="9"/>
       <c r="F374" s="10"/>
       <c r="G374" s="10"/>
     </row>
-    <row r="375" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C375" s="8"/>
       <c r="D375" s="9"/>
       <c r="E375" s="9"/>
       <c r="F375" s="10"/>
       <c r="G375" s="10"/>
     </row>
-    <row r="376" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C376" s="8"/>
       <c r="D376" s="9"/>
       <c r="E376" s="9"/>
       <c r="F376" s="10"/>
       <c r="G376" s="10"/>
     </row>
-    <row r="377" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C377" s="8"/>
       <c r="D377" s="9"/>
       <c r="E377" s="9"/>
       <c r="F377" s="10"/>
       <c r="G377" s="10"/>
     </row>
-    <row r="378" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C378" s="8"/>
       <c r="D378" s="9"/>
       <c r="E378" s="9"/>
       <c r="F378" s="10"/>
       <c r="G378" s="10"/>
     </row>
-    <row r="379" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C379" s="8"/>
       <c r="D379" s="9"/>
       <c r="E379" s="9"/>
       <c r="F379" s="10"/>
       <c r="G379" s="10"/>
     </row>
-    <row r="380" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C380" s="8"/>
       <c r="D380" s="9"/>
       <c r="E380" s="9"/>
       <c r="F380" s="10"/>
       <c r="G380" s="10"/>
     </row>
-    <row r="381" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C381" s="8"/>
       <c r="D381" s="9"/>
       <c r="E381" s="9"/>
       <c r="F381" s="10"/>
       <c r="G381" s="10"/>
     </row>
-    <row r="382" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C382" s="8"/>
       <c r="D382" s="9"/>
       <c r="E382" s="9"/>
       <c r="F382" s="10"/>
       <c r="G382" s="10"/>
     </row>
-    <row r="383" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C383" s="8"/>
       <c r="D383" s="9"/>
       <c r="E383" s="9"/>
       <c r="F383" s="10"/>
       <c r="G383" s="10"/>
     </row>
-    <row r="384" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C384" s="8"/>
       <c r="D384" s="9"/>
       <c r="E384" s="9"/>
